--- a/dataset/student-testimonial-data.xlsx
+++ b/dataset/student-testimonial-data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -22,69 +22,91 @@
     <t>date</t>
   </si>
   <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>profilePic</t>
   </si>
   <si>
-    <t>Student1</t>
-  </si>
-  <si>
-    <t>Student2</t>
-  </si>
-  <si>
-    <t>Student3</t>
-  </si>
-  <si>
-    <t>Student4</t>
-  </si>
-  <si>
-    <t>Student5</t>
-  </si>
-  <si>
-    <t>Student message 1</t>
-  </si>
-  <si>
-    <t>Student message 2</t>
-  </si>
-  <si>
-    <t>Student message 3</t>
-  </si>
-  <si>
-    <t>Student message 4</t>
-  </si>
-  <si>
-    <t>Student message 5</t>
-  </si>
-  <si>
-    <t>discipline</t>
-  </si>
-  <si>
-    <t>discipline1</t>
-  </si>
-  <si>
-    <t>discipline2</t>
-  </si>
-  <si>
-    <t>discipline3</t>
-  </si>
-  <si>
-    <t>discipline4</t>
-  </si>
-  <si>
-    <t>discipline5</t>
+    <t>Priya Singh</t>
+  </si>
+  <si>
+    <t>Amit Kumar</t>
+  </si>
+  <si>
+    <t>Sneha Verma</t>
+  </si>
+  <si>
+    <t>Rohit Mehta</t>
+  </si>
+  <si>
+    <t>Avijit Pal</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>DCA</t>
+  </si>
+  <si>
+    <t>ADCA</t>
+  </si>
+  <si>
+    <t>DDEO</t>
+  </si>
+  <si>
+    <t>DOA</t>
+  </si>
+  <si>
+    <t>Trisha Das</t>
+  </si>
+  <si>
+    <t>Sampriti Sen</t>
+  </si>
+  <si>
+    <t>CTTC</t>
+  </si>
+  <si>
+    <t>ADIT</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>feedback</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>The training was very practical and industry-oriented. I got my first job within 2 months!</t>
+  </si>
+  <si>
+    <t>Amazing mentors and great hands-on projects. Highly recommended!</t>
+  </si>
+  <si>
+    <t>Very interactive classes with real-world examples. Helped me switch careers successfully.</t>
+  </si>
+  <si>
+    <t>Loved the creative environment and hands-on practice. Built a strong portfolio.</t>
+  </si>
+  <si>
+    <t>Cloud labs were excellent! Got AWS certification with their guidance.</t>
+  </si>
+  <si>
+    <t>p1.jpeg</t>
+  </si>
+  <si>
+    <t>p2.jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -95,12 +117,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,10 +143,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,123 +452,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>45877</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="6">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1">
         <v>45908</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>45912</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>45910</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>45911</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1">
-        <v>45915</v>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1">
+        <v>45912</v>
+      </c>
+      <c r="F7" s="6">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="1">
+        <v>45913</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
